--- a/drv_ctr_qualifier.xlsx
+++ b/drv_ctr_qualifier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="231">
   <si>
     <t xml:space="preserve">driver</t>
   </si>
@@ -828,8 +828,8 @@
   </sheetPr>
   <dimension ref="A1:FE52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CJ10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CZ36" activeCellId="0" sqref="CZ36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T14" activeCellId="0" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1801,7 +1801,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
@@ -1857,6 +1857,9 @@
         <v>164</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>164</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -5360,7 +5363,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>186</v>
       </c>
@@ -5416,6 +5419,9 @@
         <v>164</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>164</v>
       </c>
       <c r="U14" s="2" t="s">
@@ -7510,10 +7516,10 @@
       <c r="T25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="U25" s="0" t="s">
+      <c r="U25" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="V25" s="2" t="s">
         <v>203</v>
       </c>
       <c r="W25" s="2" t="s">
@@ -8553,7 +8559,7 @@
       <c r="A29" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="U29" s="0" t="s">
+      <c r="U29" s="2" t="s">
         <v>203</v>
       </c>
       <c r="V29" s="2" t="s">
